--- a/2020_Wellness_Survey.xlsx
+++ b/2020_Wellness_Survey.xlsx
@@ -249,87 +249,89 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>11404071123</v>
+        <v>11413624784</v>
       </c>
       <c r="B3">
         <v>254096274</v>
       </c>
       <c r="C3" s="1">
-        <v>43899.4496875</v>
+        <v>43902.475648148145</v>
       </c>
       <c r="D3" s="1">
-        <v>43899.450324074074</v>
+        <v>43902.476064814815</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>74.118.25.106</t>
         </is>
       </c>
-      <c r="J3">
-        <v>4</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>I really enjoy them</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Frequently</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Make it larger!</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>11403856422</v>
+        <v>11404071123</v>
       </c>
       <c r="B4">
         <v>254096274</v>
       </c>
       <c r="C4" s="1">
-        <v>43899.401608796295</v>
+        <v>43899.4496875</v>
       </c>
       <c r="D4" s="1">
-        <v>43899.403333333335</v>
+        <v>43899.450324074074</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
+          <t>74.118.25.106</t>
         </is>
       </c>
       <c r="J4">
@@ -337,7 +339,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>People need to be more engaged.  I think a lot of people sign up but don't make an attempt to get steps in which is discouraging for the people who are really trying</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -377,26 +379,26 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Nothing, i just don't have time to use it.</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>11399447700</v>
+        <v>11403856422</v>
       </c>
       <c r="B5">
         <v>254096274</v>
       </c>
       <c r="C5" s="1">
-        <v>43896.75298611111</v>
+        <v>43899.401608796295</v>
       </c>
       <c r="D5" s="1">
-        <v>43896.75400462963</v>
+        <v>43899.403333333335</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>67.185.157.6</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J5">
@@ -404,7 +406,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Get the field more involved.  Don't forget about us:)</t>
+          <t>People need to be more engaged.  I think a lot of people sign up but don't make an attempt to get steps in which is discouraging for the people who are really trying</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -412,16 +414,31 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr">
         <is>
           <t>Never</t>
@@ -429,44 +446,39 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Field Based...</t>
+          <t>Nothing, i just don't have time to use it.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>11399081559</v>
+        <v>11399447700</v>
       </c>
       <c r="B6">
         <v>254096274</v>
       </c>
       <c r="C6" s="1">
-        <v>43896.63775462963</v>
+        <v>43896.75298611111</v>
       </c>
       <c r="D6" s="1">
-        <v>43896.638287037036</v>
+        <v>43896.75400462963</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>108.49.157.56</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>I really enjoy them</t>
-        </is>
+          <t>67.185.157.6</t>
+        </is>
+      </c>
+      <c r="J6">
+        <v>4</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Keep the games coming!</t>
-        </is>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>More diversity in exercises</t>
+          <t>Get the field more involved.  Don't forget about us:)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -481,49 +493,49 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Sometimes</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Option to play music?</t>
+          <t>Field Based...</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>11399079037</v>
+        <v>11399081559</v>
       </c>
       <c r="B7">
         <v>254096274</v>
       </c>
       <c r="C7" s="1">
-        <v>43896.63395833333</v>
+        <v>43896.63775462963</v>
       </c>
       <c r="D7" s="1">
-        <v>43896.63759259259</v>
+        <v>43896.638287037036</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
-        </is>
-      </c>
-      <c r="J7">
+          <t>108.49.157.56</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>I really enjoy them</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Keep the games coming!</t>
+        </is>
+      </c>
+      <c r="L7">
         <v>4</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>it will be nice to provide some xlrn gifts or something within the company policy to motivate every one</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Dissatisfied</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>fit lab classes should be flexible hours not during end of the day. May be mornings or 3 p.m. afternoon</t>
+          <t>More diversity in exercises</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -531,42 +543,34 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-      <c r="P7">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>slow yoga not the power yoga</t>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Sometimes</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>need to create good environment like more machines, lightings, more books on health, fitness, nutrients.</t>
+          <t>Option to play music?</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>11398962889</v>
+        <v>11399079037</v>
       </c>
       <c r="B8">
         <v>254096274</v>
       </c>
       <c r="C8" s="1">
-        <v>43896.605671296296</v>
+        <v>43896.63395833333</v>
       </c>
       <c r="D8" s="1">
-        <v>43896.60607638889</v>
+        <v>43896.63759259259</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -576,9 +580,19 @@
       <c r="J8">
         <v>4</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>it will be nice to provide some xlrn gifts or something within the company policy to motivate every one</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Dissatisfied</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>fit lab classes should be flexible hours not during end of the day. May be mornings or 3 p.m. afternoon</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -586,29 +600,42 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>N/A</t>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>slow yoga not the power yoga</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
           <t>Never</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>need to create good environment like more machines, lightings, more books on health, fitness, nutrients.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>11398731802</v>
+        <v>11398962889</v>
       </c>
       <c r="B9">
         <v>254096274</v>
       </c>
       <c r="C9" s="1">
-        <v>43896.54226851852</v>
+        <v>43896.605671296296</v>
       </c>
       <c r="D9" s="1">
-        <v>43896.54515046296</v>
+        <v>43896.60607638889</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -618,73 +645,51 @@
       <c r="J9">
         <v>4</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Nothing</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="R9" t="inlineStr">
         <is>
           <t>Never</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>11398613844</v>
+        <v>11398731802</v>
       </c>
       <c r="B10">
         <v>254096274</v>
       </c>
       <c r="C10" s="1">
-        <v>43896.51729166666</v>
+        <v>43896.54226851852</v>
       </c>
       <c r="D10" s="1">
-        <v>43896.51814814815</v>
+        <v>43896.54515046296</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>71.112.146.180</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>I really enjoy them</t>
+          <t>74.118.25.106</t>
+        </is>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Nothing</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -692,16 +697,31 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr">
         <is>
           <t>Never</t>
@@ -709,36 +729,31 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Add a Pelatron </t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>11398442946</v>
+        <v>11398613844</v>
       </c>
       <c r="B11">
         <v>254096274</v>
       </c>
       <c r="C11" s="1">
-        <v>43896.47789351852</v>
+        <v>43896.51729166666</v>
       </c>
       <c r="D11" s="1">
-        <v>43896.479409722226</v>
+        <v>43896.51814814815</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>71.112.146.180</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>I do not participate at this time--but I should!</t>
+          <t>I really enjoy them</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -746,31 +761,16 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>N/a</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="R11" t="inlineStr">
         <is>
           <t>Never</t>
@@ -778,22 +778,22 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>I would like to see a larger gym with more equipment and dedicated showers and I would use it then--</t>
+          <t>Add a Pelatron </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11398433709</v>
+        <v>11398442946</v>
       </c>
       <c r="B12">
         <v>254096274</v>
       </c>
       <c r="C12" s="1">
-        <v>43896.476435185185</v>
+        <v>43896.47789351852</v>
       </c>
       <c r="D12" s="1">
-        <v>43896.47739583333</v>
+        <v>43896.479409722226</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -805,24 +805,29 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>I do not participate at this time--but I should!</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>they should start at 5! </t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>they should start at 5! </t>
+          <t>N/a</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -830,28 +835,38 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="R12" t="inlineStr">
         <is>
           <t>Never</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>I would like to see a larger gym with more equipment and dedicated showers and I would use it then--</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>11398349840</v>
+        <v>11398433709</v>
       </c>
       <c r="B13">
         <v>254096274</v>
       </c>
       <c r="C13" s="1">
-        <v>43896.45564814815</v>
+        <v>43896.476435185185</v>
       </c>
       <c r="D13" s="1">
-        <v>43896.45974537037</v>
+        <v>43896.47739583333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
+          <t>74.118.25.106</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -859,47 +874,49 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>I will participate next time</t>
-        </is>
-      </c>
-      <c r="L13">
-        <v>4</v>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>they should start at 5! </t>
+        </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>they should start at 5! </t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
           <t>Never</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>The location. Location with a window and bigger space. I would feel weird being in there with more than one person.   Ventilation - to avoid sweaty, stale air   Up to date and clean equipment   </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>11398339363</v>
+        <v>11398349840</v>
       </c>
       <c r="B14">
         <v>254096274</v>
       </c>
       <c r="C14" s="1">
-        <v>43896.45523148148</v>
+        <v>43896.45564814815</v>
       </c>
       <c r="D14" s="1">
-        <v>43896.457280092596</v>
+        <v>43896.45974537037</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -908,47 +925,50 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>I will participate next time</t>
+        </is>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>Very Satisfied</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Very Satisfied</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Very Satisfied</t>
-        </is>
-      </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Sometimes</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>More space!!!</t>
+          <t>The location. Location with a window and bigger space. I would feel weird being in there with more than one person.   Ventilation - to avoid sweaty, stale air   Up to date and clean equipment   </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>11398264679</v>
+        <v>11398339363</v>
       </c>
       <c r="B15">
         <v>254096274</v>
       </c>
       <c r="C15" s="1">
-        <v>43896.439930555556</v>
+        <v>43896.45523148148</v>
       </c>
       <c r="D15" s="1">
-        <v>43896.44055555556</v>
+        <v>43896.457280092596</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -957,71 +977,51 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>I really enjoy them</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Sometimes</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>More space!!!</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>11398238149</v>
+        <v>11398264679</v>
       </c>
       <c r="B16">
         <v>254096274</v>
       </c>
       <c r="C16" s="1">
-        <v>43896.433958333335</v>
+        <v>43896.439930555556</v>
       </c>
       <c r="D16" s="1">
-        <v>43896.43446759259</v>
+        <v>43896.44055555556</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Stop sending invites to people that do not want to attend. Should be an opt-in list.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>N/a</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1067,21 +1067,26 @@
       <c r="R16" t="inlineStr">
         <is>
           <t>Never</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>11398228059</v>
+        <v>11398238149</v>
       </c>
       <c r="B17">
         <v>254096274</v>
       </c>
       <c r="C17" s="1">
-        <v>43896.41521990741</v>
+        <v>43896.433958333335</v>
       </c>
       <c r="D17" s="1">
-        <v>43896.43224537037</v>
+        <v>43896.43446759259</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1090,12 +1095,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Yes, prizes and more contests that are smaller...week sprints...weekenders </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1103,12 +1108,27 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Stop sending invites to people that do not want to attend. Should be an opt-in list.</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>N/a</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1121,16 +1141,16 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>11398172308</v>
+        <v>11398228059</v>
       </c>
       <c r="B18">
         <v>254096274</v>
       </c>
       <c r="C18" s="1">
-        <v>43896.41905092593</v>
+        <v>43896.41521990741</v>
       </c>
       <c r="D18" s="1">
-        <v>43896.42</v>
+        <v>43896.43224537037</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1139,45 +1159,47 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L18">
-        <v>4</v>
+          <t>I really enjoy them</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Yes, prizes and more contests that are smaller...week sprints...weekenders </t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
           <t>Never</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>larger space would be better as I felt claustrophobic when I worked out in there once. </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>11398162079</v>
+        <v>11398172308</v>
       </c>
       <c r="B19">
         <v>254096274</v>
       </c>
       <c r="C19" s="1">
-        <v>43896.41395833333</v>
+        <v>43896.41905092593</v>
       </c>
       <c r="D19" s="1">
-        <v>43896.417650462965</v>
+        <v>43896.42</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1186,52 +1208,45 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>The competition aspect is my favorite.  I liked the small teams of 6-10 people.</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L19">
+        <v>4</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Sometimes</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Get a mirror that make me look like I have more muscles?  Actually, I like the free weights and equipment.  The only thing I miss is that weight machine because you could do pull up type of exercises, pull downs, rowing.  Pulling exercises in general.  It's hard to mimic those with free weights (as far as I know).  Thanks!</t>
+          <t>larger space would be better as I felt claustrophobic when I worked out in there once. </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>11398156053</v>
+        <v>11398162079</v>
       </c>
       <c r="B20">
         <v>254096274</v>
       </c>
       <c r="C20" s="1">
-        <v>43896.415925925925</v>
+        <v>43896.41395833333</v>
       </c>
       <c r="D20" s="1">
-        <v>43896.416180555556</v>
+        <v>43896.417650462965</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1240,7 +1255,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>I really enjoy them</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>The competition aspect is my favorite.  I liked the small teams of 6-10 people.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1261,33 +1281,40 @@
       <c r="R20" t="inlineStr">
         <is>
           <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Get a mirror that make me look like I have more muscles?  Actually, I like the free weights and equipment.  The only thing I miss is that weight machine because you could do pull up type of exercises, pull downs, rowing.  Pulling exercises in general.  It's hard to mimic those with free weights (as far as I know).  Thanks!</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>11398155633</v>
+        <v>11398156053</v>
       </c>
       <c r="B21">
         <v>254096274</v>
       </c>
       <c r="C21" s="1">
-        <v>43896.41541666666</v>
+        <v>43896.415925925925</v>
       </c>
       <c r="D21" s="1">
-        <v>43896.41608796296</v>
+        <v>43896.416180555556</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>74.118.25.106</t>
         </is>
       </c>
-      <c r="J21">
-        <v>4</v>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1295,8 +1322,10 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="P21">
-        <v>4</v>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1306,40 +1335,28 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>11398154889</v>
+        <v>11398155633</v>
       </c>
       <c r="B22">
         <v>254096274</v>
       </c>
       <c r="C22" s="1">
-        <v>43896.41412037037</v>
+        <v>43896.41541666666</v>
       </c>
       <c r="D22" s="1">
-        <v>43896.415914351855</v>
+        <v>43896.41608796296</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>99.203.14.148</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>More communication</t>
-        </is>
+          <t>74.118.25.106</t>
+        </is>
+      </c>
+      <c r="J22">
+        <v>4</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>I’m in field sales and don’t have the opportunity to participate </t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1347,95 +1364,100 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Field sales</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Field sales</t>
-        </is>
+      <c r="P22">
+        <v>4</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Never</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Offer some type of reimbursement for a gym for field personnel </t>
+          <t>Sometimes</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>11398152353</v>
+        <v>11398154889</v>
       </c>
       <c r="B23">
         <v>254096274</v>
       </c>
       <c r="C23" s="1">
-        <v>43896.41422453704</v>
+        <v>43896.41412037037</v>
       </c>
       <c r="D23" s="1">
-        <v>43896.4153125</v>
+        <v>43896.415914351855</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
-        </is>
-      </c>
-      <c r="J23">
-        <v>4</v>
+          <t>99.203.14.148</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>More communication</t>
+        </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>I’m in field sales and don’t have the opportunity to participate </t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Field sales</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Field sales</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Sometimes</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Bigger space.</t>
+          <t>Offer some type of reimbursement for a gym for field personnel </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>11398151598</v>
+        <v>11398152353</v>
       </c>
       <c r="B24">
         <v>254096274</v>
       </c>
       <c r="C24" s="1">
-        <v>43896.4140625</v>
+        <v>43896.41422453704</v>
       </c>
       <c r="D24" s="1">
-        <v>43896.415127314816</v>
+        <v>43896.4153125</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J24">
@@ -1443,159 +1465,137 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
-        </is>
-      </c>
-      <c r="P24">
-        <v>4</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Frequently</t>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Bigger space.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>11392087303</v>
+        <v>11398151598</v>
       </c>
       <c r="B25">
         <v>254096274</v>
       </c>
       <c r="C25" s="1">
-        <v>43894.53288194445</v>
+        <v>43896.4140625</v>
       </c>
       <c r="D25" s="1">
-        <v>43894.539375</v>
+        <v>43896.415127314816</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>107.77.225.26</t>
+          <t>74.118.25.106</t>
         </is>
       </c>
       <c r="J25">
         <v>4</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Have a handicap of some sort to show improvement?    Grouping people into teams seemed more fun.</t>
-        </is>
-      </c>
-      <c r="L25">
-        <v>4</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Rotate instructors? Bring back Lindsay. Have 12:00 classes.</t>
-        </is>
-      </c>
-      <c r="N25">
-        <v>4</v>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Very Satisfied</t>
+        </is>
       </c>
       <c r="P25">
         <v>4</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Never</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>I get a Cybex elliptical</t>
+          <t>Frequently</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>11387923638</v>
+        <v>11392087303</v>
       </c>
       <c r="B26">
         <v>254096274</v>
       </c>
       <c r="C26" s="1">
-        <v>43893.337916666664</v>
+        <v>43894.53288194445</v>
       </c>
       <c r="D26" s="1">
-        <v>43893.340995370374</v>
+        <v>43894.539375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>107.77.225.26</t>
+        </is>
+      </c>
+      <c r="J26">
+        <v>4</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Include more incentives to get involved and encourage activity</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>Have a handicap of some sort to show improvement?    Grouping people into teams seemed more fun.</t>
+        </is>
+      </c>
+      <c r="L26">
+        <v>4</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Put the lecture hall back together after it's rearranged for the classes instead of leaving it in a state of disarray</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Put the lecture hall back together after it's rearranged for the classes instead of leaving it in a state of disarray</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Put the lecture hall back together after it's rearranged for the classes instead of leaving it in a state of disarray</t>
-        </is>
+          <t>Rotate instructors? Bring back Lindsay. Have 12:00 classes.</t>
+        </is>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>4</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Sometimes</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>I think the gym's fine.</t>
+          <t>I get a Cybex elliptical</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>11385069365</v>
+        <v>11387923638</v>
       </c>
       <c r="B27">
         <v>254096274</v>
       </c>
       <c r="C27" s="1">
-        <v>43892.379282407404</v>
+        <v>43893.337916666664</v>
       </c>
       <c r="D27" s="1">
-        <v>43892.379699074074</v>
+        <v>43893.340995370374</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1603,39 +1603,64 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Include more incentives to get involved and encourage activity</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Put the lecture hall back together after it's rearranged for the classes instead of leaving it in a state of disarray</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Put the lecture hall back together after it's rearranged for the classes instead of leaving it in a state of disarray</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Put the lecture hall back together after it's rearranged for the classes instead of leaving it in a state of disarray</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>I think the gym's fine.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>11380305214</v>
+        <v>11385069365</v>
       </c>
       <c r="B28">
         <v>254096274</v>
       </c>
       <c r="C28" s="1">
-        <v>43889.58315972222</v>
+        <v>43892.379282407404</v>
       </c>
       <c r="D28" s="1">
-        <v>43889.584340277775</v>
+        <v>43892.379699074074</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1647,100 +1672,79 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Instructions for people who don't have iPhones</t>
-        </is>
-      </c>
-      <c r="L28">
-        <v>4</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N28">
-        <v>4</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Make them more challenging</t>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>No changes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
           <t>Never</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>11379968974</v>
+        <v>11380305214</v>
       </c>
       <c r="B29">
         <v>254096274</v>
       </c>
       <c r="C29" s="1">
-        <v>43889.49587962963</v>
+        <v>43889.58315972222</v>
       </c>
       <c r="D29" s="1">
-        <v>43889.49737268518</v>
+        <v>43889.584340277775</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>74.118.25.106</t>
         </is>
       </c>
-      <c r="J29">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Instructions for people who don't have iPhones</t>
+        </is>
+      </c>
+      <c r="L29">
         <v>4</v>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>You guys do a great job</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>I can't attend at the end of the day, if they were midday I would go</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N29">
+        <v>4</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>I can't attend end of day classes, if they were midday i would go</t>
-        </is>
-      </c>
-      <c r="P29">
-        <v>4</v>
+          <t>Make them more challenging</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Very Satisfied</t>
+        </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Great classes, possibly a little on the tough side for those who are not experienced yogis</t>
+          <t>No changes</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -1750,31 +1754,34 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>I just need to remember it's there :)</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>11375935833</v>
+        <v>11379968974</v>
       </c>
       <c r="B30">
         <v>254096274</v>
       </c>
       <c r="C30" s="1">
-        <v>43888.31471064815</v>
+        <v>43889.49587962963</v>
       </c>
       <c r="D30" s="1">
-        <v>43888.32555555556</v>
+        <v>43889.49737268518</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>74.118.25.106</t>
+        </is>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>You guys do a great job</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -1784,7 +1791,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>I would like to attend the classes, perhaps if there was a morning class around 7 or 730 am?</t>
+          <t>I can't attend at the end of the day, if they were midday I would go</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -1792,159 +1799,174 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>N/A</t>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>I can't attend end of day classes, if they were midday i would go</t>
+        </is>
+      </c>
+      <c r="P30">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Great classes, possibly a little on the tough side for those who are not experienced yogis</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Sometimes</t>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>I just need to remember it's there :)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>11375015261</v>
+        <v>11375935833</v>
       </c>
       <c r="B31">
         <v>254096274</v>
       </c>
       <c r="C31" s="1">
-        <v>43887.911157407405</v>
+        <v>43888.31471064815</v>
       </c>
       <c r="D31" s="1">
-        <v>43887.91510416667</v>
+        <v>43888.32555555556</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>73.69.118.10</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>I like the way you are coming up with step challenges internally as well as with Neighbourhood biotech companies. If you can add calorie intake/burn along with step challenge </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Please try to include afternoon sessions </t>
+          <t>I would like to attend the classes, perhaps if there was a morning class around 7 or 730 am?</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>2days in a week </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>2days in a week</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Frequently</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>More space</t>
+          <t>Sometimes</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>11374822646</v>
+        <v>11375015261</v>
       </c>
       <c r="B32">
         <v>254096274</v>
       </c>
       <c r="C32" s="1">
-        <v>43887.83604166667</v>
+        <v>43887.911157407405</v>
       </c>
       <c r="D32" s="1">
-        <v>43887.83673611111</v>
+        <v>43887.91510416667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>100.0.110.230</t>
+          <t>73.69.118.10</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>I really enjoy them</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>The instructions on how to connect your own iphone/apple watch are hard to follow. </t>
+          <t>I like the way you are coming up with step challenges internally as well as with Neighbourhood biotech companies. If you can add calorie intake/burn along with step challenge </t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Please try to include afternoon sessions </t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P32">
-        <v>4</v>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>2days in a week </t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>2days in a week</t>
+        </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Frequently</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>More space</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>11374610862</v>
+        <v>11374822646</v>
       </c>
       <c r="B33">
         <v>254096274</v>
       </c>
       <c r="C33" s="1">
-        <v>43887.76111111111</v>
+        <v>43887.83604166667</v>
       </c>
       <c r="D33" s="1">
-        <v>43887.76300925926</v>
+        <v>43887.83673611111</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>8.26.12.7</t>
+          <t>100.0.110.230</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Place progress updates on the corporate TV screens</t>
+          <t>The instructions on how to connect your own iphone/apple watch are hard to follow. </t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -1957,48 +1979,41 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="P33">
+        <v>4</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
           <t>Never</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Dedicate more space and relocate it to space where there are windows.  A bit more equipment would be nice.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>11374108681</v>
+        <v>11374610862</v>
       </c>
       <c r="B34">
         <v>254096274</v>
       </c>
       <c r="C34" s="1">
-        <v>43887.64648148148</v>
+        <v>43887.76111111111</v>
       </c>
       <c r="D34" s="1">
-        <v>43887.64857638889</v>
+        <v>43887.76300925926</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>8.26.12.7</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>I really enjoy them</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Lunch walking groups</t>
+          <t>Place progress updates on the corporate TV screens</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2006,31 +2021,16 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>perhaps a dance class, such as Zumba? or a kick-boxing class? I would go to that</t>
-        </is>
-      </c>
       <c r="N34" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>replace with a dance or kick boxing class</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>I went a couple of times and I liked these classes</t>
-        </is>
-      </c>
       <c r="R34" t="inlineStr">
         <is>
           <t>Never</t>
@@ -2038,64 +2038,66 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>improve showers</t>
+          <t>Dedicate more space and relocate it to space where there are windows.  A bit more equipment would be nice.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>11373793665</v>
+        <v>11374108681</v>
       </c>
       <c r="B35">
         <v>254096274</v>
       </c>
       <c r="C35" s="1">
-        <v>43887.57837962963</v>
+        <v>43887.64648148148</v>
       </c>
       <c r="D35" s="1">
-        <v>43887.58232638889</v>
+        <v>43887.64857638889</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
+          <t>74.118.25.106</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Calibrate steps for other modes of exercise, such as biking and swimming</t>
-        </is>
-      </c>
-      <c r="L35">
-        <v>4</v>
+          <t>Lunch walking groups</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Have instructor offer guidance on modifying exercises for say, building endurance or strength.  And more warm up and cool down or suggestion for each if time is short</t>
+          <t>perhaps a dance class, such as Zumba? or a kick-boxing class? I would go to that</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>add a bit more back chain / lower back activation movements</t>
+          <t>replace with a dance or kick boxing class</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>More asana flow</t>
+          <t>I went a couple of times and I liked these classes</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -2105,100 +2107,128 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>NA.. not a gym user</t>
+          <t>improve showers</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>11373322405</v>
+        <v>11373793665</v>
       </c>
       <c r="B36">
         <v>254096274</v>
       </c>
       <c r="C36" s="1">
-        <v>43887.4783912037</v>
+        <v>43887.57837962963</v>
       </c>
       <c r="D36" s="1">
-        <v>43887.48097222222</v>
+        <v>43887.58232638889</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>76.19.98.177</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Calibrate steps for other modes of exercise, such as biking and swimming</t>
+        </is>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Have instructor offer guidance on modifying exercises for say, building endurance or strength.  And more warm up and cool down or suggestion for each if time is short</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>Very Satisfied</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Classes are great. If we could consider adding a morning or afternoon class not on a Friday that would nice. </t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>add a bit more back chain / lower back activation movements</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
         <is>
           <t>Very Satisfied</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Love Pilates. Melissa is fantastic </t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Haven’t been able to attend as I WFH on Fridays but historically have also enjoyed the on site yoga. If moved to another day and I could likely attend more frequently </t>
+          <t>More asana flow</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Sometimes</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Larger space. More weights. </t>
+          <t>NA.. not a gym user</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>11373307330</v>
+        <v>11373322405</v>
       </c>
       <c r="B37">
         <v>254096274</v>
       </c>
       <c r="C37" s="1">
-        <v>43887.411145833335</v>
+        <v>43887.4783912037</v>
       </c>
       <c r="D37" s="1">
-        <v>43887.47793981482</v>
+        <v>43887.48097222222</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
+          <t>76.19.98.177</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Classes are great. If we could consider adding a morning or afternoon class not on a Friday that would nice. </t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Very Satisfied</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Love Pilates. Melissa is fantastic </t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Haven’t been able to attend as I WFH on Fridays but historically have also enjoyed the on site yoga. If moved to another day and I could likely attend more frequently </t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -2208,36 +2238,31 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>I would appreciate women showers to be cleaned more often and for team members not to leave their dirty items in the shower along with their dirty gym wear.  I feel it is a huge health hazard.  Dirty to a point that I don't want to use gym facilities any more!  This has been communicated to facilities before but no major improvement. </t>
+          <t>Larger space. More weights. </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>11373303835</v>
+        <v>11373307330</v>
       </c>
       <c r="B38">
         <v>254096274</v>
       </c>
       <c r="C38" s="1">
-        <v>43887.47630787037</v>
+        <v>43887.411145833335</v>
       </c>
       <c r="D38" s="1">
-        <v>43887.47723379629</v>
+        <v>43887.47793981482</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Increase the prize amount</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2245,42 +2270,44 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>I would appreciate women showers to be cleaned more often and for team members not to leave their dirty items in the shower along with their dirty gym wear.  I feel it is a huge health hazard.  Dirty to a point that I don't want to use gym facilities any more!  This has been communicated to facilities before but no major improvement. </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>11373297803</v>
+        <v>11373303835</v>
       </c>
       <c r="B39">
         <v>254096274</v>
       </c>
       <c r="C39" s="1">
-        <v>43887.475439814814</v>
+        <v>43887.47630787037</v>
       </c>
       <c r="D39" s="1">
-        <v>43887.476018518515</v>
+        <v>43887.47723379629</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
-        </is>
-      </c>
-      <c r="J39">
-        <v>4</v>
+          <t>74.118.25.106</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>I really enjoy them</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Increase the prize amount</t>
+        </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2305,85 +2332,58 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>11373285540</v>
+        <v>11373297803</v>
       </c>
       <c r="B40">
         <v>254096274</v>
       </c>
       <c r="C40" s="1">
-        <v>43887.47201388889</v>
+        <v>43887.475439814814</v>
       </c>
       <c r="D40" s="1">
-        <v>43887.47356481481</v>
+        <v>43887.476018518515</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>I really enjoy them</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>50.239.43.202</t>
+        </is>
+      </c>
+      <c r="J40">
+        <v>4</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Sometimes</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>Never</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>11373275391</v>
+        <v>11373285540</v>
       </c>
       <c r="B41">
         <v>254096274</v>
       </c>
       <c r="C41" s="1">
-        <v>43887.465416666666</v>
+        <v>43887.47201388889</v>
       </c>
       <c r="D41" s="1">
-        <v>43887.47158564815</v>
+        <v>43887.47356481481</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2397,17 +2397,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>QC data - It is unbelievable to me how many steps some people can get.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Offer more of them earlier in the day.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -2415,29 +2415,44 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="R41" t="inlineStr">
         <is>
           <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>11373275059</v>
+        <v>11373275391</v>
       </c>
       <c r="B42">
         <v>254096274</v>
       </c>
       <c r="C42" s="1">
-        <v>43887.470717592594</v>
+        <v>43887.465416666666</v>
       </c>
       <c r="D42" s="1">
-        <v>43887.47152777778</v>
+        <v>43887.47158564815</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2446,22 +2461,22 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>I really enjoy them</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>during work hours step events</t>
+          <t>QC data - It is unbelievable to me how many steps some people can get.</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t> n/a</t>
+          <t>Offer more of them earlier in the day.</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -2469,58 +2484,43 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Never</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>n/a</t>
+          <t>Sometimes</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>11373240478</v>
+        <v>11373275059</v>
       </c>
       <c r="B43">
         <v>254096274</v>
       </c>
       <c r="C43" s="1">
-        <v>43887.46351851852</v>
+        <v>43887.470717592594</v>
       </c>
       <c r="D43" s="1">
-        <v>43887.46476851852</v>
+        <v>43887.47152777778</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>71.232.103.60</t>
+          <t>74.118.25.106</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>More prizes</t>
+          <t>during work hours step events</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>manage my life so i could attend</t>
+          <t> n/a</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>see FitLab comment</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -2560,31 +2560,36 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Add Treadmill desks in every building</t>
+          <t>n/a</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>11373237485</v>
+        <v>11373240478</v>
       </c>
       <c r="B44">
         <v>254096274</v>
       </c>
       <c r="C44" s="1">
-        <v>43887.463275462964</v>
+        <v>43887.46351851852</v>
       </c>
       <c r="D44" s="1">
-        <v>43887.46417824074</v>
+        <v>43887.46476851852</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>71.232.103.60</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>I really enjoy them</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>More prizes</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2592,16 +2597,31 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>manage my life so i could attend</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>see FitLab comment</t>
+        </is>
+      </c>
       <c r="R44" t="inlineStr">
         <is>
           <t>Never</t>
@@ -2609,31 +2629,31 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Add Peloton bikes</t>
+          <t>Add Treadmill desks in every building</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>11373220600</v>
+        <v>11373237485</v>
       </c>
       <c r="B45">
         <v>254096274</v>
       </c>
       <c r="C45" s="1">
-        <v>43887.46042824074</v>
+        <v>43887.463275462964</v>
       </c>
       <c r="D45" s="1">
-        <v>43887.46074074074</v>
+        <v>43887.46417824074</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
+          <t>74.118.25.106</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -2646,38 +2666,43 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr">
         <is>
           <t>Never</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Add Peloton bikes</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>11373212170</v>
+        <v>11373220600</v>
       </c>
       <c r="B46">
         <v>254096274</v>
       </c>
       <c r="C46" s="1">
-        <v>43887.45774305556</v>
+        <v>43887.46042824074</v>
       </c>
       <c r="D46" s="1">
-        <v>43887.45898148148</v>
+        <v>43887.46074074074</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>I am a new employee and have not learned of details or how to join.</t>
+          <t>I really enjoy them</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -2685,54 +2710,29 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="N46" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="R46" t="inlineStr">
         <is>
           <t>Never</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Bigger / More room</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>11373205732</v>
+        <v>11373212170</v>
       </c>
       <c r="B47">
         <v>254096274</v>
       </c>
       <c r="C47" s="1">
-        <v>43887.456458333334</v>
+        <v>43887.45774305556</v>
       </c>
       <c r="D47" s="1">
-        <v>43887.45755787037</v>
+        <v>43887.45898148148</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2741,12 +2741,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Do not make them overly complicated.  </t>
+          <t>I am a new employee and have not learned of details or how to join.</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>I think it is great they are being offered, I am just not someone that would attend due to my work/life balance.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -2786,54 +2786,56 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Ventilation</t>
+          <t>Bigger / More room</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>11373199430</v>
+        <v>11373205732</v>
       </c>
       <c r="B48">
         <v>254096274</v>
       </c>
       <c r="C48" s="1">
-        <v>43887.45521990741</v>
+        <v>43887.456458333334</v>
       </c>
       <c r="D48" s="1">
-        <v>43887.45618055556</v>
+        <v>43887.45755787037</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
-        </is>
-      </c>
-      <c r="J48">
-        <v>4</v>
+          <t>74.118.25.106</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>I really enjoy them</t>
+        </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>I like when they have small teams and bonuses for attending fitness classes.</t>
+          <t>Do not make them overly complicated.  </t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>they're great!</t>
+          <t>I think it is great they are being offered, I am just not someone that would attend due to my work/life balance.</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>they're great! Best class.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -2841,43 +2843,46 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Sometimes</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Get a peloton!</t>
+          <t>Ventilation</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>11373177624</v>
+        <v>11373199430</v>
       </c>
       <c r="B49">
         <v>254096274</v>
       </c>
       <c r="C49" s="1">
-        <v>43887.45040509259</v>
+        <v>43887.45521990741</v>
       </c>
       <c r="D49" s="1">
-        <v>43887.4515625</v>
+        <v>43887.45618055556</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>50.239.43.202</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>I really enjoy them</t>
-        </is>
+      <c r="J49">
+        <v>4</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>I like when they have small teams and bonuses for attending fitness classes.</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -2887,7 +2892,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>they're great!</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -2897,7 +2902,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>they're great! Best class.</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -2905,11 +2910,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="R49" t="inlineStr">
         <is>
           <t>Sometimes</t>
@@ -2917,22 +2917,22 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>bigger room with free weights(bench)</t>
+          <t>Get a peloton!</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>11373162737</v>
+        <v>11373177624</v>
       </c>
       <c r="B50">
         <v>254096274</v>
       </c>
       <c r="C50" s="1">
-        <v>43887.44665509259</v>
+        <v>43887.45040509259</v>
       </c>
       <c r="D50" s="1">
-        <v>43887.44841435185</v>
+        <v>43887.4515625</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2941,32 +2941,32 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>I really enjoy them</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>I am a newer employee and have not yet had a chance to participate in one.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>I am a newer employee and have not yet had a chance to take part in the classes.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>I am a newer employee and have not yet had a chance to take part in the classes.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>I am a newer employee and have not yet had a chance to take part in the classes.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Sometimes</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Find a bigger room to put it in.</t>
+          <t>bigger room with free weights(bench)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>11373125573</v>
+        <v>11373162737</v>
       </c>
       <c r="B51">
         <v>254096274</v>
       </c>
       <c r="C51" s="1">
-        <v>43887.41431712963</v>
+        <v>43887.44665509259</v>
       </c>
       <c r="D51" s="1">
-        <v>43887.44042824074</v>
+        <v>43887.44841435185</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1.  Organizing meetings in different buildings.  2. Organizing walking meetings or lunch walking groups.  3. Bring Your Own Technology (BYOT), in the step challenge context, allows people to participate using their tracking technology (app or device) of choice.  </t>
+          <t>I am a newer employee and have not yet had a chance to participate in one.</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Probably trying early morning sessions would be a great idea as many have to rush home right after work.</t>
+          <t>I am a newer employee and have not yet had a chance to take part in the classes.</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Probably trying early morning sessions would be a great idea as many have to rush home right after work.</t>
+          <t>I am a newer employee and have not yet had a chance to take part in the classes.</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -3045,46 +3045,46 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Probably trying early morning sessions would be a great idea as many have to rush home right after work.</t>
+          <t>I am a newer employee and have not yet had a chance to take part in the classes.</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Frequently</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Create more "free" space instead of cramming up with instruments.</t>
+          <t>Find a bigger room to put it in.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>11373115861</v>
+        <v>11373125573</v>
       </c>
       <c r="B52">
         <v>254096274</v>
       </c>
       <c r="C52" s="1">
-        <v>43887.433391203704</v>
+        <v>43887.41431712963</v>
       </c>
       <c r="D52" s="1">
-        <v>43887.43828703704</v>
+        <v>43887.44042824074</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>advertise them more, bigger prizes?</t>
+          <t>1.  Organizing meetings in different buildings.  2. Organizing walking meetings or lunch walking groups.  3. Bring Your Own Technology (BYOT), in the step challenge context, allows people to participate using their tracking technology (app or device) of choice.  </t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Maybe have a dedicated fitness class room?</t>
+          <t>Probably trying early morning sessions would be a great idea as many have to rush home right after work.</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Probably trying early morning sessions would be a great idea as many have to rush home right after work.</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>have different levels of yoga?  I am afraid to go because I am a beginner</t>
+          <t>Probably trying early morning sessions would be a great idea as many have to rush home right after work.</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -3124,22 +3124,22 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>make the space bigger and have better ventilation.  also, a second elliptical would be AWESOME and very much appreciated.  I personally love the ARC trainer elliptical.  The equipment at the gym is really great and I love that we have this resource.  Also, maybe a water source in the room?   Thanks for providing such a great space!!!</t>
+          <t>Create more "free" space instead of cramming up with instruments.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>11373102079</v>
+        <v>11373115861</v>
       </c>
       <c r="B53">
         <v>254096274</v>
       </c>
       <c r="C53" s="1">
-        <v>43887.43440972222</v>
+        <v>43887.433391203704</v>
       </c>
       <c r="D53" s="1">
-        <v>43887.43524305556</v>
+        <v>43887.43828703704</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3148,7 +3148,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>I really enjoy them</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>advertise them more, bigger prizes?</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3158,7 +3163,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Make them at times in which it is easier for employees to attend - 12pm classes on Fridays are tough. Would love to see a morning class or something a little later in the afternoon.</t>
+          <t>Maybe have a dedicated fitness class room?</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -3166,33 +3171,48 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>have different levels of yoga?  I am afraid to go because I am a beginner</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Frequently</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>make the space bigger and have better ventilation.  also, a second elliptical would be AWESOME and very much appreciated.  I personally love the ARC trainer elliptical.  The equipment at the gym is really great and I love that we have this resource.  Also, maybe a water source in the room?   Thanks for providing such a great space!!!</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>11373096244</v>
+        <v>11373102079</v>
       </c>
       <c r="B54">
         <v>254096274</v>
       </c>
       <c r="C54" s="1">
-        <v>43887.432280092595</v>
+        <v>43887.43440972222</v>
       </c>
       <c r="D54" s="1">
-        <v>43887.433958333335</v>
+        <v>43887.43524305556</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
+          <t>74.118.25.106</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3200,11 +3220,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3212,7 +3227,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Make them at times in which it is easier for employees to attend - 12pm classes on Fridays are tough. Would love to see a morning class or something a little later in the afternoon.</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -3220,13 +3235,10 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P54">
-        <v>4</v>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -3236,20 +3248,20 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>11373094813</v>
+        <v>11373096244</v>
       </c>
       <c r="B55">
         <v>254096274</v>
       </c>
       <c r="C55" s="1">
-        <v>43887.43152777778</v>
+        <v>43887.432280092595</v>
       </c>
       <c r="D55" s="1">
-        <v>43887.433645833335</v>
+        <v>43887.433958333335</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3259,7 +3271,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>I do not participate.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3269,7 +3281,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>I do not participate.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -3279,42 +3291,30 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>I do not participate.</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>I do not participate.</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P55">
+        <v>4</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
           <t>Never</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>It'd be helpful to send a quarterly email reminding employees we have a gym and where it is (i.e. what building), as well as what equipment the gym contains so individuals can plan their workout if they choose to use it.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>11373070385</v>
+        <v>11373094813</v>
       </c>
       <c r="B56">
         <v>254096274</v>
       </c>
       <c r="C56" s="1">
-        <v>43887.42763888889</v>
+        <v>43887.43152777778</v>
       </c>
       <c r="D56" s="1">
-        <v>43887.42841435185</v>
+        <v>43887.433645833335</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3323,22 +3323,22 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>It was great</t>
+          <t>I do not participate.</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Nothing</t>
+          <t>I do not participate.</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>N.A</t>
+          <t>I do not participate.</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -3358,44 +3358,56 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>N.A</t>
+          <t>I do not participate.</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Sometimes</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>Great!</t>
+          <t>It'd be helpful to send a quarterly email reminding employees we have a gym and where it is (i.e. what building), as well as what equipment the gym contains so individuals can plan their workout if they choose to use it.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>11373064341</v>
+        <v>11373070385</v>
       </c>
       <c r="B57">
         <v>254096274</v>
       </c>
       <c r="C57" s="1">
-        <v>43887.426712962966</v>
+        <v>43887.42763888889</v>
       </c>
       <c r="D57" s="1">
-        <v>43887.42712962963</v>
+        <v>43887.42841435185</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>74.118.25.106</t>
         </is>
       </c>
-      <c r="J57">
-        <v>4</v>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>I really enjoy them</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>It was great</t>
+        </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Nothing</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -3403,46 +3415,61 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>N.A</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>N.A</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Great!</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>11373045117</v>
+        <v>11373064341</v>
       </c>
       <c r="B58">
         <v>254096274</v>
       </c>
       <c r="C58" s="1">
-        <v>43887.42236111111</v>
+        <v>43887.426712962966</v>
       </c>
       <c r="D58" s="1">
-        <v>43887.42285879629</v>
+        <v>43887.42712962963</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L58">
+          <t>74.118.25.106</t>
+        </is>
+      </c>
+      <c r="J58">
         <v>4</v>
       </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -3452,26 +3479,26 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Sometimes</t>
+          <t>Never</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>11373041384</v>
+        <v>11373045117</v>
       </c>
       <c r="B59">
         <v>254096274</v>
       </c>
       <c r="C59" s="1">
-        <v>43887.42061342593</v>
+        <v>43887.42236111111</v>
       </c>
       <c r="D59" s="1">
-        <v>43887.42201388889</v>
+        <v>43887.42285879629</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3479,14 +3506,12 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
+      <c r="L59">
+        <v>4</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -3502,16 +3527,16 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>11373039216</v>
+        <v>11373041384</v>
       </c>
       <c r="B60">
         <v>254096274</v>
       </c>
       <c r="C60" s="1">
-        <v>43887.421168981484</v>
+        <v>43887.42061342593</v>
       </c>
       <c r="D60" s="1">
-        <v>43887.42155092592</v>
+        <v>43887.42201388889</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3525,12 +3550,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -3540,22 +3565,22 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Sometimes</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>11373030382</v>
+        <v>11373039216</v>
       </c>
       <c r="B61">
         <v>254096274</v>
       </c>
       <c r="C61" s="1">
-        <v>43887.41893518518</v>
+        <v>43887.421168981484</v>
       </c>
       <c r="D61" s="1">
-        <v>43887.41960648148</v>
+        <v>43887.42155092592</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3590,20 +3615,20 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>11373030032</v>
+        <v>11373030382</v>
       </c>
       <c r="B62">
         <v>254096274</v>
       </c>
       <c r="C62" s="1">
-        <v>43887.419282407405</v>
+        <v>43887.41893518518</v>
       </c>
       <c r="D62" s="1">
-        <v>43887.41952546296</v>
+        <v>43887.41960648148</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>172.58.223.26</t>
+          <t>74.118.25.106</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3634,50 +3659,35 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>11373028771</v>
+        <v>11373030032</v>
       </c>
       <c r="B63">
         <v>254096274</v>
       </c>
       <c r="C63" s="1">
-        <v>43887.415</v>
+        <v>43887.419282407405</v>
       </c>
       <c r="D63" s="1">
-        <v>43887.41924768518</v>
+        <v>43887.41952546296</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
+          <t>172.58.223.26</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>The step challenge should happen more often.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>They are perfect!</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Excellent!</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -3687,31 +3697,26 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Sometimes</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>It should be larger and well vented. I believe 167 has more space to be converted in a nice GYM</t>
+          <t>Never</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>11373014573</v>
+        <v>11373028771</v>
       </c>
       <c r="B64">
         <v>254096274</v>
       </c>
       <c r="C64" s="1">
-        <v>43887.41563657407</v>
+        <v>43887.415</v>
       </c>
       <c r="D64" s="1">
-        <v>43887.41606481482</v>
+        <v>43887.41924768518</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>8.26.12.10</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3719,14 +3724,29 @@
           <t>I really enjoy them</t>
         </is>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>The step challenge should happen more often.</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>They are perfect!</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Excellent!</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -3736,26 +3756,31 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>It should be larger and well vented. I believe 167 has more space to be converted in a nice GYM</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>11373012728</v>
+        <v>11373014573</v>
       </c>
       <c r="B65">
         <v>254096274</v>
       </c>
       <c r="C65" s="1">
-        <v>43887.41400462963</v>
+        <v>43887.41563657407</v>
       </c>
       <c r="D65" s="1">
-        <v>43887.415671296294</v>
+        <v>43887.41606481482</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>108.7.64.31</t>
+          <t>8.26.12.10</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3763,78 +3788,53 @@
           <t>I really enjoy them</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>More of them!  Maybe add a few more categories for folks to work on.  In addition to total steps, maybe most steps in one day, or step totals by team, or department, etc.  </t>
-        </is>
-      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>They are a great idea, but I'm not able to attend based on my scheudle.</t>
-        </is>
-      </c>
       <c r="N65" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="R65" t="inlineStr">
         <is>
           <t>Never</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>Maybe a larger space, more/updated machines.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>11373006739</v>
+        <v>11373012728</v>
       </c>
       <c r="B66">
         <v>254096274</v>
       </c>
       <c r="C66" s="1">
-        <v>43887.412986111114</v>
+        <v>43887.41400462963</v>
       </c>
       <c r="D66" s="1">
-        <v>43887.414351851854</v>
+        <v>43887.415671296294</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>108.7.64.31</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>I really enjoy them</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>I didn't know about it. Can people not enrolled in Acceleron health insurance participate? If not, this is the first change I would make. Thanks.</t>
+          <t>More of them!  Maybe add a few more categories for folks to work on.  In addition to total steps, maybe most steps in one day, or step totals by team, or department, etc.  </t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>I haven't attended any.</t>
+          <t>They are a great idea, but I'm not able to attend based on my scheudle.</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>I haven't attended any. I would love a class BEFORE work (7-8 or 7:30-8:30).</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>I haven't gone to anyone and would LOVE a class before work (7-8 or 7:30-8:30)</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -3874,26 +3874,26 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>It's kind of gross and hidden. Sorry but never going to use it.</t>
+          <t>Maybe a larger space, more/updated machines.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>11373006509</v>
+        <v>11373006739</v>
       </c>
       <c r="B67">
         <v>254096274</v>
       </c>
       <c r="C67" s="1">
-        <v>43887.413564814815</v>
+        <v>43887.412986111114</v>
       </c>
       <c r="D67" s="1">
-        <v>43887.414305555554</v>
+        <v>43887.414351851854</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
+          <t>74.118.25.106</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3901,21 +3901,41 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>I didn't know about it. Can people not enrolled in Acceleron health insurance participate? If not, this is the first change I would make. Thanks.</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>I haven't attended any.</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>I haven't attended any. I would love a class BEFORE work (7-8 or 7:30-8:30).</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>I haven't gone to anyone and would LOVE a class before work (7-8 or 7:30-8:30)</t>
+        </is>
+      </c>
       <c r="R67" t="inlineStr">
         <is>
           <t>Never</t>
@@ -3923,22 +3943,22 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>Add more updated machines and weights</t>
+          <t>It's kind of gross and hidden. Sorry but never going to use it.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>11373002433</v>
+        <v>11373006509</v>
       </c>
       <c r="B68">
         <v>254096274</v>
       </c>
       <c r="C68" s="1">
-        <v>43887.411087962966</v>
+        <v>43887.413564814815</v>
       </c>
       <c r="D68" s="1">
-        <v>43887.41337962963</v>
+        <v>43887.414305555554</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3947,12 +3967,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Maybe complete with companies closer to our size</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -3960,53 +3975,43 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>no comment</t>
-        </is>
-      </c>
       <c r="N68" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>no comment</t>
-        </is>
-      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>no Comment</t>
-        </is>
-      </c>
       <c r="R68" t="inlineStr">
         <is>
           <t>Never</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Add more updated machines and weights</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>11373000253</v>
+        <v>11373002433</v>
       </c>
       <c r="B69">
         <v>254096274</v>
       </c>
       <c r="C69" s="1">
-        <v>43887.41196759259</v>
+        <v>43887.411087962966</v>
       </c>
       <c r="D69" s="1">
-        <v>43887.412881944445</v>
+        <v>43887.41337962963</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4016,27 +4021,27 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>more team oriented activities</t>
+          <t>Maybe complete with companies closer to our size</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>more of them :)</t>
+          <t>no comment</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>nothing! They are great!</t>
+          <t>no comment</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -4046,32 +4051,27 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>no Comment</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Sometimes</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>more space, more strength-oriented equipment</t>
+          <t>Never</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>11372998673</v>
+        <v>11373000253</v>
       </c>
       <c r="B70">
         <v>254096274</v>
       </c>
       <c r="C70" s="1">
-        <v>43887.40589120371</v>
+        <v>43887.41196759259</v>
       </c>
       <c r="D70" s="1">
-        <v>43887.41253472222</v>
+        <v>43887.412881944445</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -4085,27 +4085,27 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Have more of them.</t>
+          <t>more team oriented activities</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Have more beginner classes.</t>
+          <t>more of them :)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>nothing! They are great!</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -4115,41 +4115,46 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>more space, more strength-oriented equipment</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>11372995517</v>
+        <v>11372998673</v>
       </c>
       <c r="B71">
         <v>254096274</v>
       </c>
       <c r="C71" s="1">
-        <v>43887.408854166664</v>
+        <v>43887.40589120371</v>
       </c>
       <c r="D71" s="1">
-        <v>43887.41180555556</v>
+        <v>43887.41253472222</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
+          <t>74.118.25.106</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>I really enjoy them</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>offer some type of incentive, if there's none offered, such as a team lunch for the winners and bragging rights on Ace Place. </t>
+          <t>Have more of them.</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4159,7 +4164,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>I am not sure because  i am sure there are different schedules and times that suit the interested people. I am also busy so I never have time to attend. </t>
+          <t>Have more beginner classes.</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -4169,7 +4174,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>same as the above with fit lab class... </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -4177,194 +4182,211 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="R71" t="inlineStr">
         <is>
           <t>Never</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>If i had more time in my day i most certainly would use the gym more often. </t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>11372995469</v>
+        <v>11372995517</v>
       </c>
       <c r="B72">
         <v>254096274</v>
       </c>
       <c r="C72" s="1">
-        <v>43887.40133101852</v>
+        <v>43887.408854166664</v>
       </c>
       <c r="D72" s="1">
-        <v>43887.41179398148</v>
+        <v>43887.41180555556</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>The same person wins every time which is somewhat disappointing since we all know that their number of steps is not achievable for most of us, so somehow revamp the challenge to not include steps but maybe participation in fitness classes/daily exercise challenge/weight loss or BMI challenge</t>
+          <t>offer some type of incentive, if there's none offered, such as a team lunch for the winners and bragging rights on Ace Place. </t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>I like how Nesrin changes the format of the class on a weekly basis so you never know what to expect. I wouldn't do anything to improve them!</t>
+          <t>I am not sure because  i am sure there are different schedules and times that suit the interested people. I am also busy so I never have time to attend. </t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Nothing, Melissa is awesome. </t>
+          <t>same as the above with fit lab class... </t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Frequently</t>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>If i had more time in my day i most certainly would use the gym more often. </t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>11372991695</v>
+        <v>11372995469</v>
       </c>
       <c r="B73">
         <v>254096274</v>
       </c>
       <c r="C73" s="1">
-        <v>43887.40020833333</v>
+        <v>43887.40133101852</v>
       </c>
       <c r="D73" s="1">
-        <v>43887.4109837963</v>
+        <v>43887.41179398148</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>74.118.25.106</t>
         </is>
       </c>
-      <c r="J73">
-        <v>4</v>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>I really enjoy them</t>
+        </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Do a step challenge by department</t>
-        </is>
-      </c>
-      <c r="L73">
-        <v>4</v>
+          <t>The same person wins every time which is somewhat disappointing since we all know that their number of steps is not achievable for most of us, so somehow revamp the challenge to not include steps but maybe participation in fitness classes/daily exercise challenge/weight loss or BMI challenge</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Very Satisfied</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>I like how Nesrin changes the format of the class on a weekly basis so you never know what to expect. I wouldn't do anything to improve them!</t>
+        </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Nothing, Melissa is awesome. </t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
           <t>Frequently</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>Adding a Stairmaster, pull up bar, resistance bands</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>11372990605</v>
+        <v>11372991695</v>
       </c>
       <c r="B74">
         <v>254096274</v>
       </c>
       <c r="C74" s="1">
-        <v>43887.40957175926</v>
+        <v>43887.40020833333</v>
       </c>
       <c r="D74" s="1">
-        <v>43887.41074074074</v>
+        <v>43887.4109837963</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>74.118.25.106</t>
+        </is>
+      </c>
+      <c r="J74">
+        <v>4</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Do a step challenge by department</t>
+        </is>
+      </c>
+      <c r="L74">
+        <v>4</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="P74">
-        <v>4</v>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>Perhaps arrange room and mats better beforehand.</t>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Frequently</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Adding a Stairmaster, pull up bar, resistance bands</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>11372987922</v>
+        <v>11372990605</v>
       </c>
       <c r="B75">
         <v>254096274</v>
       </c>
       <c r="C75" s="1">
-        <v>43887.4090162037</v>
+        <v>43887.40957175926</v>
       </c>
       <c r="D75" s="1">
-        <v>43887.41017361111</v>
+        <v>43887.41074074074</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4372,65 +4394,62 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>Have 5:00pm or 7:00am classes</t>
-        </is>
-      </c>
       <c r="N75" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>N/A</t>
+      <c r="P75">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Perhaps arrange room and mats better beforehand.</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
           <t>Never</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>Better times, before and after work</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>11372975846</v>
+        <v>11372987922</v>
       </c>
       <c r="B76">
         <v>254096274</v>
       </c>
       <c r="C76" s="1">
-        <v>43887.40480324074</v>
+        <v>43887.4090162037</v>
       </c>
       <c r="D76" s="1">
-        <v>43887.40759259259</v>
+        <v>43887.41017361111</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>74.118.25.106</t>
         </is>
       </c>
-      <c r="J76">
-        <v>4</v>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Love these classes! Nesrin is great and works with the equipment we have. She gives good modifications for injuries. My only suggestion would be to have the stations a little bit more organized since sometimes it gets crazy with people doing their own thing.  Preferred when they were on Mondays, but Wednesdays are also fine.</t>
-        </is>
-      </c>
-      <c r="N76">
-        <v>4</v>
+          <t>Have 5:00pm or 7:00am classes</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -4444,90 +4463,76 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>It would be great to have a little bit more room to workout (i.e. with weights, non-cardio equipment). I might consider using it more if there was more room.</t>
+          <t>Better times, before and after work</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>11372974227</v>
+        <v>11372975846</v>
       </c>
       <c r="B77">
         <v>254096274</v>
       </c>
       <c r="C77" s="1">
-        <v>43887.406006944446</v>
+        <v>43887.40480324074</v>
       </c>
       <c r="D77" s="1">
-        <v>43887.40723379629</v>
+        <v>43887.40759259259</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>174.228.153.5</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>I need to learn more about them. Download the app but not sure exactly how to use interpret.</t>
-        </is>
+          <t>74.118.25.106</t>
+        </is>
+      </c>
+      <c r="J77">
+        <v>4</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>I’ve never attended</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Never attended</t>
-        </is>
+          <t>Love these classes! Nesrin is great and works with the equipment we have. She gives good modifications for injuries. My only suggestion would be to have the stations a little bit more organized since sometimes it gets crazy with people doing their own thing.  Preferred when they were on Mondays, but Wednesdays are also fine.</t>
+        </is>
+      </c>
+      <c r="N77">
+        <v>4</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>Never attended </t>
-        </is>
-      </c>
       <c r="R77" t="inlineStr">
         <is>
           <t>Never</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>It would be great to have a little bit more room to workout (i.e. with weights, non-cardio equipment). I might consider using it more if there was more room.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>11372972421</v>
+        <v>11372974227</v>
       </c>
       <c r="B78">
         <v>254096274</v>
       </c>
       <c r="C78" s="1">
-        <v>43887.403958333336</v>
+        <v>43887.406006944446</v>
       </c>
       <c r="D78" s="1">
-        <v>43887.4068287037</v>
+        <v>43887.40723379629</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
+          <t>174.228.153.5</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4537,7 +4542,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Maybe more rewards and group walking sessions</t>
+          <t>I need to learn more about them. Download the app but not sure exactly how to use interpret.</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4547,7 +4552,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>I’ve never attended</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -4557,56 +4562,51 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Never attended</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>It's been good!</t>
+          <t>Never attended </t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
           <t>Never</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>Can we propose a legit gym? It looks very claustrophobic in there. If we can somehow find the space for it, it would be nice to have a larger gym area.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>11372972292</v>
+        <v>11372972421</v>
       </c>
       <c r="B79">
         <v>254096274</v>
       </c>
       <c r="C79" s="1">
-        <v>43887.40537037037</v>
+        <v>43887.403958333336</v>
       </c>
       <c r="D79" s="1">
-        <v>43887.406793981485</v>
+        <v>43887.4068287037</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Use the step counts to have employees compete against each other as well as other Pharma</t>
+          <t>Maybe more rewards and group walking sessions</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -4631,46 +4631,51 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>It's been good!</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Sometimes</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>I like it how it is. Several companies provide gym memberships to employees but I much rather prefer a gym on site. </t>
+          <t>Can we propose a legit gym? It looks very claustrophobic in there. If we can somehow find the space for it, it would be nice to have a larger gym area.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>11372968606</v>
+        <v>11372972292</v>
       </c>
       <c r="B80">
         <v>254096274</v>
       </c>
       <c r="C80" s="1">
-        <v>43887.40576388889</v>
+        <v>43887.40537037037</v>
       </c>
       <c r="D80" s="1">
-        <v>43887.40599537037</v>
+        <v>43887.406793981485</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
+          <t>74.118.25.106</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>I really enjoy them</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Use the step counts to have employees compete against each other as well as other Pharma</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -4678,38 +4683,58 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>I like it how it is. Several companies provide gym memberships to employees but I much rather prefer a gym on site. </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>11372968488</v>
+        <v>11372968606</v>
       </c>
       <c r="B81">
         <v>254096274</v>
       </c>
       <c r="C81" s="1">
-        <v>43887.405069444445</v>
+        <v>43887.40576388889</v>
       </c>
       <c r="D81" s="1">
-        <v>43887.40597222222</v>
+        <v>43887.40599537037</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4735,92 +4760,74 @@
       <c r="R81" t="inlineStr">
         <is>
           <t>Never</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>Include a cable machine for various exercises</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>11372966511</v>
+        <v>11372968488</v>
       </c>
       <c r="B82">
         <v>254096274</v>
       </c>
       <c r="C82" s="1">
-        <v>43887.404386574075</v>
+        <v>43887.405069444445</v>
       </c>
       <c r="D82" s="1">
-        <v>43887.40553240741</v>
+        <v>43887.40597222222</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
+          <t>74.118.25.106</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>keep teams even size</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>n/a</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="P82">
-        <v>2</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>switch up instructor</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
           <t>Never</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Include a cable machine for various exercises</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>11372964846</v>
+        <v>11372966511</v>
       </c>
       <c r="B83">
         <v>254096274</v>
       </c>
       <c r="C83" s="1">
-        <v>43887.40305555556</v>
+        <v>43887.404386574075</v>
       </c>
       <c r="D83" s="1">
-        <v>43887.405173611114</v>
+        <v>43887.40553240741</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>8.26.12.7</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4828,71 +4835,76 @@
           <t>I really enjoy them</t>
         </is>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>keep teams even size</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>courtesy notice across the company not schedule meetings during the fitness classes so more people can attend</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>Very Satisfied</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="P83">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>switch up instructor</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Sometimes</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>more room</t>
+          <t>Never</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>11372964554</v>
+        <v>11372964846</v>
       </c>
       <c r="B84">
         <v>254096274</v>
       </c>
       <c r="C84" s="1">
-        <v>43887.403865740744</v>
+        <v>43887.40305555556</v>
       </c>
       <c r="D84" s="1">
-        <v>43887.40511574074</v>
+        <v>43887.405173611114</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
-        </is>
-      </c>
-      <c r="J84">
-        <v>4</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>somehow make it easier to load steps. I am technically challenged :(</t>
+          <t>8.26.12.7</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>I really enjoy them</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Any chance of an early morning class?</t>
+          <t>courtesy notice across the company not schedule meetings during the fitness classes so more people can attend</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -4902,144 +4914,152 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>more room</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>11372963821</v>
+        <v>11372964554</v>
       </c>
       <c r="B85">
         <v>254096274</v>
       </c>
       <c r="C85" s="1">
-        <v>43887.40347222222</v>
+        <v>43887.403865740744</v>
       </c>
       <c r="D85" s="1">
-        <v>43887.404953703706</v>
+        <v>43887.40511574074</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
+          <t>74.118.25.106</t>
+        </is>
+      </c>
+      <c r="J85">
+        <v>4</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Promote them more prior to the start</t>
+          <t>somehow make it easier to load steps. I am technically challenged :(</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>offer other times </t>
+          <t>Any chance of an early morning class?</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Frequently</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>provide cleaning wipes :)</t>
+          <t>Never</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>11372963629</v>
+        <v>11372963821</v>
       </c>
       <c r="B86">
         <v>254096274</v>
       </c>
       <c r="C86" s="1">
-        <v>43887.403645833336</v>
+        <v>43887.40347222222</v>
       </c>
       <c r="D86" s="1">
-        <v>43887.40491898148</v>
+        <v>43887.404953703706</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>8.26.12.10</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Promote them more prior to the start</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>offer other times </t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Frequently</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>provide cleaning wipes :)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>11372962890</v>
+        <v>11372963629</v>
       </c>
       <c r="B87">
         <v>254096274</v>
       </c>
       <c r="C87" s="1">
-        <v>43887.40244212963</v>
+        <v>43887.403645833336</v>
       </c>
       <c r="D87" s="1">
-        <v>43887.40476851852</v>
+        <v>43887.40491898148</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>8.26.12.10</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>We should do smaller teams, around 5 people per team, and keep it to just XLRN employees, meaning no competitions against other companies. It's way more personable, fun and challenging when we have small teams competing against one another. It's also a great way to meet employees that we might have not met otherwise!</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5047,54 +5067,34 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="N87" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="P87" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Sometimes</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>The gym is very boring and cluttered with junk. If we kept is better maintained, and even added some inspirational quotes to the walls or some pictures that would be fun. Also, if we could provide stations of hand sanitizer and towels, that would be great.</t>
+          <t>Never</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>11372960352</v>
+        <v>11372962890</v>
       </c>
       <c r="B88">
         <v>254096274</v>
       </c>
       <c r="C88" s="1">
-        <v>43887.40258101852</v>
+        <v>43887.40244212963</v>
       </c>
       <c r="D88" s="1">
-        <v>43887.40424768518</v>
+        <v>43887.40476851852</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -5103,12 +5103,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>I really enjoy them</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Increase awareness!</t>
+          <t>We should do smaller teams, around 5 people per team, and keep it to just XLRN employees, meaning no competitions against other companies. It's way more personable, fun and challenging when we have small teams competing against one another. It's also a great way to meet employees that we might have not met otherwise!</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Move them out of the lecture hall to a gym.</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Move them out of the lecture hall to a gym.</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -5138,32 +5138,32 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>Move them out of the lecture hall to a gym.</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Sometimes</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>Make it a little less cluttered.</t>
+          <t>The gym is very boring and cluttered with junk. If we kept is better maintained, and even added some inspirational quotes to the walls or some pictures that would be fun. Also, if we could provide stations of hand sanitizer and towels, that would be great.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>11372959813</v>
+        <v>11372960352</v>
       </c>
       <c r="B89">
         <v>254096274</v>
       </c>
       <c r="C89" s="1">
-        <v>43887.40125</v>
+        <v>43887.40258101852</v>
       </c>
       <c r="D89" s="1">
-        <v>43887.40412037037</v>
+        <v>43887.40424768518</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -5172,12 +5172,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>have more  similar events during the year</t>
+          <t>Increase awareness!</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5185,37 +5185,54 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="N89">
-        <v>4</v>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Move them out of the lecture hall to a gym.</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Move them out of the lecture hall to a gym.</t>
+        </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Move them out of the lecture hall to a gym.</t>
+        </is>
+      </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Frequently</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>Bigger room   The aeration of the room  </t>
+          <t>Make it a little less cluttered.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>11372959659</v>
+        <v>11372959813</v>
       </c>
       <c r="B90">
         <v>254096274</v>
       </c>
       <c r="C90" s="1">
-        <v>43887.402349537035</v>
+        <v>43887.40125</v>
       </c>
       <c r="D90" s="1">
-        <v>43887.40408564815</v>
+        <v>43887.40412037037</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -5229,37 +5246,20 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Maybe make them more visible throughout the challenge.  Posibly use the TVs to show leader board and add some compettition</t>
+          <t>have more  similar events during the year</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>Nothing really, jsut hte time at 4:00 doesn't work for me</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Make it a noon </t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N90">
+        <v>4</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>it's fine</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -5269,60 +5269,66 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>I think it is good</t>
+          <t>Bigger room   The aeration of the room  </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>11372959584</v>
+        <v>11372959659</v>
       </c>
       <c r="B91">
         <v>254096274</v>
       </c>
       <c r="C91" s="1">
-        <v>43887.39996527778</v>
+        <v>43887.402349537035</v>
       </c>
       <c r="D91" s="1">
-        <v>43887.404074074075</v>
+        <v>43887.40408564815</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>74.118.25.106</t>
         </is>
       </c>
-      <c r="J91">
-        <v>4</v>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>I really enjoy them</t>
+        </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>it would be nice if there was a way to reward the folks who increase their activity the most, instead of rewarding those whose activity levels remain high before and after</t>
-        </is>
-      </c>
-      <c r="L91">
-        <v>4</v>
+          <t>Maybe make them more visible throughout the challenge.  Posibly use the TVs to show leader board and add some compettition</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Very Satisfied</t>
+        </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>mix up the routines/difficulty, maybe mix up the instructors (bring back Lindsay)</t>
+          <t>Nothing really, jsut hte time at 4:00 doesn't work for me</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Make it a noon </t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
           <t>Very Satisfied</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>nothing, pilates is the best class we have. I have also gotten feedback from others that pilates is a great class, even compared to other classes they have taken outside of acceleron</t>
-        </is>
-      </c>
-      <c r="P91">
-        <v>4</v>
-      </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>Ritu is great, but some of the moves are a little tough for beginners</t>
+          <t>it's fine</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -5332,91 +5338,85 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>i think the gym is great unless it gets moved to a larger space</t>
+          <t>I think it is good</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>11372958832</v>
+        <v>11372959584</v>
       </c>
       <c r="B92">
         <v>254096274</v>
       </c>
       <c r="C92" s="1">
-        <v>43887.40241898148</v>
+        <v>43887.39996527778</v>
       </c>
       <c r="D92" s="1">
-        <v>43887.403912037036</v>
+        <v>43887.404074074075</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>74.118.25.106</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="J92">
+        <v>4</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>it would be nice if there was a way to reward the folks who increase their activity the most, instead of rewarding those whose activity levels remain high before and after</t>
+        </is>
+      </c>
+      <c r="L92">
+        <v>4</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>mix up the routines/difficulty, maybe mix up the instructors (bring back Lindsay)</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>nothing, pilates is the best class we have. I have also gotten feedback from others that pilates is a great class, even compared to other classes they have taken outside of acceleron</t>
+        </is>
+      </c>
+      <c r="P92">
+        <v>4</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ritu is great, but some of the moves are a little tough for beginners</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Frequently</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>i think the gym is great unless it gets moved to a larger space</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>11372953110</v>
+        <v>11372958832</v>
       </c>
       <c r="B93">
         <v>254096274</v>
       </c>
       <c r="C93" s="1">
-        <v>43887.40078703704</v>
+        <v>43887.40241898148</v>
       </c>
       <c r="D93" s="1">
-        <v>43887.40256944444</v>
+        <v>43887.403912037036</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5435,57 +5435,57 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>More collaborative. It feels too much like boot camp which a few people doesn't like</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Melissa is AWESOME!</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Very Satisfied</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>Ritu is excellent. </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Frequently</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>Better circulation. </t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>11372952976</v>
+        <v>11372953110</v>
       </c>
       <c r="B94">
         <v>254096274</v>
       </c>
       <c r="C94" s="1">
-        <v>43887.400717592594</v>
+        <v>43887.40078703704</v>
       </c>
       <c r="D94" s="1">
-        <v>43887.402546296296</v>
+        <v>43887.40256944444</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -5494,7 +5494,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>I really enjoy them</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -5504,7 +5509,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Nothing</t>
+          <t>More collaborative. It feels too much like boot camp which a few people doesn't like</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -5514,7 +5519,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Nothing</t>
+          <t>Melissa is AWESOME!</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -5524,27 +5529,32 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>Nothing</t>
+          <t>Ritu is excellent. </t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Sometimes</t>
+          <t>Frequently</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Better circulation. </t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>11372952772</v>
+        <v>11372952976</v>
       </c>
       <c r="B95">
         <v>254096274</v>
       </c>
       <c r="C95" s="1">
-        <v>43887.401666666665</v>
+        <v>43887.400717592594</v>
       </c>
       <c r="D95" s="1">
-        <v>43887.40248842593</v>
+        <v>43887.402546296296</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -5553,155 +5563,145 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Nothing</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Nothing</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Very Satisfied</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Nothing</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Sometimes</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>11372952520</v>
+        <v>11372952772</v>
       </c>
       <c r="B96">
         <v>254096274</v>
       </c>
       <c r="C96" s="1">
-        <v>43887.4012037037</v>
+        <v>43887.401666666665</v>
       </c>
       <c r="D96" s="1">
-        <v>43887.40244212963</v>
+        <v>43887.40248842593</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>172.58.220.23</t>
+          <t>74.118.25.106</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>More prize</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>Not good time</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>Schedule time not goid</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>Time</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
           <t>Never</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>Too small</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>11372949613</v>
+        <v>11372952520</v>
       </c>
       <c r="B97">
         <v>254096274</v>
       </c>
       <c r="C97" s="1">
-        <v>43887.40059027778</v>
+        <v>43887.4012037037</v>
       </c>
       <c r="D97" s="1">
-        <v>43887.40178240741</v>
+        <v>43887.40244212963</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
+          <t>172.58.220.23</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>I really enjoy them</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>More often</t>
+          <t>More prize</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Dissatisfied</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Not good time</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Dissatisfied</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>Schedule time not goid</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -5711,44 +5711,46 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>Have a recumbent bike in there</t>
+          <t>Too small</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>11372948821</v>
+        <v>11372949613</v>
       </c>
       <c r="B98">
         <v>254096274</v>
       </c>
       <c r="C98" s="1">
-        <v>43887.4002662037</v>
+        <v>43887.40059027778</v>
       </c>
       <c r="D98" s="1">
-        <v>43887.40158564815</v>
+        <v>43887.40178240741</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
-        </is>
-      </c>
-      <c r="J98">
-        <v>4</v>
+          <t>50.239.43.202</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>I really enjoy them</t>
+        </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Unsure of the specifics, but some sort of twist that would allow more variability in the "winners"</t>
+          <t>More often</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Different time options</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -5758,7 +5760,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Have not attended pilates</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -5768,51 +5770,54 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>Have not attended yoga</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Sometimes</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>Nothing, gym is great</t>
+          <t>Have a recumbent bike in there</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>11372948196</v>
+        <v>11372948821</v>
       </c>
       <c r="B99">
         <v>254096274</v>
       </c>
       <c r="C99" s="1">
-        <v>43887.400243055556</v>
+        <v>43887.4002662037</v>
       </c>
       <c r="D99" s="1">
-        <v>43887.40144675926</v>
+        <v>43887.40158564815</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>74.118.25.106</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>N/A</t>
+      <c r="J99">
+        <v>4</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Unsure of the specifics, but some sort of twist that would allow more variability in the "winners"</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Could classes be offered before or after the workday (6:30/7am or 5+pm)?</t>
+          <t>Different time options</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -5822,7 +5827,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Could classes be offered before or after the workday (6:30/7am or 5+pm)?</t>
+          <t>Have not attended pilates</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -5832,31 +5837,36 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>Could classes be offered before or after the workday (6:30/7am or 5+pm)?</t>
+          <t>Have not attended yoga</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
           <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>Nothing, gym is great</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>11372947017</v>
+        <v>11372948196</v>
       </c>
       <c r="B100">
         <v>254096274</v>
       </c>
       <c r="C100" s="1">
-        <v>43887.400347222225</v>
+        <v>43887.400243055556</v>
       </c>
       <c r="D100" s="1">
-        <v>43887.40116898148</v>
+        <v>43887.40144675926</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>50.239.43.202</t>
+          <t>74.118.25.106</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5864,11 +5874,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -5876,7 +5881,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>N/A  </t>
+          <t>Could classes be offered before or after the workday (6:30/7am or 5+pm)?</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -5886,7 +5891,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Could classes be offered before or after the workday (6:30/7am or 5+pm)?</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -5896,36 +5901,31 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Could classes be offered before or after the workday (6:30/7am or 5+pm)?</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Never</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>Bigger space!</t>
+          <t>Sometimes</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>11372945625</v>
+        <v>11372947017</v>
       </c>
       <c r="B101">
         <v>254096274</v>
       </c>
       <c r="C101" s="1">
-        <v>43887.400034722225</v>
+        <v>43887.400347222225</v>
       </c>
       <c r="D101" s="1">
-        <v>43887.40084490741</v>
+        <v>43887.40116898148</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>74.118.25.106</t>
+          <t>50.239.43.202</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5935,12 +5935,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Can we coordinate with the challenges in the Virgin Pulse app.</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>We need a dedicated space for working out..I would utilize the classes if we did.</t>
+          <t>N/A  </t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -5950,7 +5955,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>We need a dedicated space for working out..I would utilize the classes if we did.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -5960,7 +5965,7 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>We need a dedicated space for working out..I would utilize the classes if we did.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -5970,19 +5975,19 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>Need a larger space.</t>
+          <t>Bigger space!</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>11372945609</v>
+        <v>11372945625</v>
       </c>
       <c r="B102">
         <v>254096274</v>
       </c>
       <c r="C102" s="1">
-        <v>43887.400509259256</v>
+        <v>43887.400034722225</v>
       </c>
       <c r="D102" s="1">
         <v>43887.40084490741</v>
@@ -5992,17 +5997,19 @@
           <t>74.118.25.106</t>
         </is>
       </c>
-      <c r="J102">
-        <v>4</v>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>prizes </t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>Can we coordinate with the challenges in the Virgin Pulse app.</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>We need a dedicated space for working out..I would utilize the classes if we did.</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -6010,29 +6017,44 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>We need a dedicated space for working out..I would utilize the classes if we did.</t>
+        </is>
+      </c>
       <c r="P102" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>We need a dedicated space for working out..I would utilize the classes if we did.</t>
+        </is>
+      </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Sometimes</t>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Need a larger space.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>11372944759</v>
+        <v>11372945609</v>
       </c>
       <c r="B103">
         <v>254096274</v>
       </c>
       <c r="C103" s="1">
-        <v>43887.40016203704</v>
+        <v>43887.400509259256</v>
       </c>
       <c r="D103" s="1">
-        <v>43887.40064814815</v>
+        <v>43887.40084490741</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -6042,6 +6064,11 @@
       <c r="J103">
         <v>4</v>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>prizes </t>
+        </is>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -6059,32 +6086,30 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Sometimes</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>11372944166</v>
+        <v>11372944759</v>
       </c>
       <c r="B104">
         <v>254096274</v>
       </c>
       <c r="C104" s="1">
-        <v>43887.4</v>
+        <v>43887.40016203704</v>
       </c>
       <c r="D104" s="1">
-        <v>43887.40052083333</v>
+        <v>43887.40064814815</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>74.118.25.106</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="J104">
+        <v>4</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -6109,53 +6134,97 @@
     </row>
     <row r="105">
       <c r="A105">
+        <v>11372944166</v>
+      </c>
+      <c r="B105">
+        <v>254096274</v>
+      </c>
+      <c r="C105" s="1">
+        <v>43887.4</v>
+      </c>
+      <c r="D105" s="1">
+        <v>43887.40052083333</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>74.118.25.106</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
         <v>11344629141</v>
       </c>
-      <c r="B105">
-        <v>254096274</v>
-      </c>
-      <c r="C105" s="1">
+      <c r="B106">
+        <v>254096274</v>
+      </c>
+      <c r="C106" s="1">
         <v>43874.66650462963</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D106" s="1">
         <v>43874.667604166665</v>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>107.77.236.10</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>I really enjoy them</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>Quarterly challenges  </t>
         </is>
       </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>N/a</t>
         </is>
       </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R105" t="inlineStr">
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
         <is>
           <t>Never</t>
         </is>
